--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_v0.1_gene_ranking.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_v0.1_gene_ranking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Tmem132a</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Twnk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Il1r2</t>
         </is>
       </c>
     </row>
@@ -526,27 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Gdi2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gmpr2</t>
+          <t>6530413G14Rik</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Nr4a2</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Akap13</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,12 +571,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Cap1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Btla</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gm15663</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Gm10684</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
     </row>
@@ -616,22 +616,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Eif3a</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Gm28417</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>1700113A16Rik</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -646,27 +646,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Srrm1</t>
+          <t>Gm9888</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Actr3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gcnt2</t>
+          <t>Nr4a3</t>
         </is>
       </c>
     </row>
@@ -676,22 +676,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Arpc2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Htr7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Htr7</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -706,27 +706,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Maff</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Gm10244</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Alpk2</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Gcnt2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Tcof1</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Cd83</t>
         </is>
       </c>
     </row>
@@ -736,27 +736,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Tcof1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Gm47566</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Alpk2</t>
         </is>
       </c>
     </row>
@@ -766,17 +766,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cd47</t>
+          <t>Gm15396</t>
         </is>
       </c>
     </row>
@@ -796,27 +796,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Ssh2</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Maff</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Gm9888</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Fosb</t>
         </is>
       </c>
     </row>
@@ -856,22 +856,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Htr7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Gm14023</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Gm10244</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -886,27 +886,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Actb</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Srrm1</t>
+          <t>Arhgap18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Hspa5</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Cap1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Gm20496</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Tspan13</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gcnt2</t>
+          <t>Tcp1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Actb</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gm15663</t>
+          <t>Tkfc</t>
         </is>
       </c>
     </row>
@@ -976,27 +976,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Gm10244</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Ifngr1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Gm28417</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Maff</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1006,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Ssh2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Arpc2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Twnk</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Rnaseh2a</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1036,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Gdi2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Gdi2</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Tmem189</t>
         </is>
       </c>
     </row>
@@ -1066,27 +1066,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Arhgap18</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Ly75</t>
         </is>
       </c>
     </row>
@@ -1096,27 +1096,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Srrm1</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Gm11175</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Jak2</t>
         </is>
       </c>
     </row>
@@ -1126,27 +1126,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Gm15396</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Jak2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Cd83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Gm12999</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>Itga4</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Camk1d</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Iqgap2</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Tmem189</t>
         </is>
       </c>
     </row>
@@ -1156,27 +1156,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Gm14023</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1201,12 +1201,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Malt1</t>
         </is>
       </c>
     </row>
@@ -1216,27 +1216,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Tmem116</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Cdk14</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Iqgap2</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Sf3b1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Tcof1</t>
         </is>
       </c>
     </row>
@@ -1246,27 +1246,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Tmem132a</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Gm47566</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Tcp1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Gm28417</t>
         </is>
       </c>
     </row>
@@ -1276,27 +1276,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cd47</t>
+          <t>Eif3a</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Akap13</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>1700113A16Rik</t>
         </is>
       </c>
     </row>
@@ -1306,27 +1306,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Akap13</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Cyld</t>
         </is>
       </c>
     </row>
@@ -1336,27 +1336,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Gpcpd1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Gm11175</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Iqgap2</t>
+          <t>Kpna4</t>
         </is>
       </c>
     </row>
@@ -1366,27 +1366,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Tkfc</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Havcr2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Ly75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Hspa5</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>Malat1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Samsn1</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Gm11175</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Wdfy4</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Cd47</t>
+          <t>Actr3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Gm12999</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Med7</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Ifngr1</t>
         </is>
       </c>
     </row>
@@ -1426,27 +1426,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Actb</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Med7</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Gm10244</t>
         </is>
       </c>
     </row>
@@ -1456,27 +1456,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Nr4a3</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Tcp1</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Gm11175</t>
-        </is>
-      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Gm15663</t>
+          <t>Tkfc</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>6530413G14Rik</t>
         </is>
       </c>
     </row>
@@ -1486,27 +1486,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Gm14023</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Ssh2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Gm11175</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Gm26759</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Gmpr2</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Akap13</t>
         </is>
       </c>
     </row>
@@ -1546,27 +1546,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Sf3b1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Rnaseh2a</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Gm15396</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Arpc2</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1576,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Iqgap2</t>
+          <t>Twnk</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Gm12999</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Tmem116</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Actr3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Cd74</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1606,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Gdi2</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1636,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cd47</t>
+          <t>Ifngr1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Ssh2</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Twnk</t>
         </is>
       </c>
     </row>
@@ -1666,27 +1666,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Tcof1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Rnaseh2a</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Actb</t>
         </is>
       </c>
     </row>
@@ -1696,27 +1696,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>Ifngr1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Btla</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>Gpcpd1</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Rgs1</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Med7</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Maff</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Eif3a</t>
         </is>
       </c>
     </row>
@@ -1726,27 +1726,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Gpcpd1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Tcp1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Arhgap18</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Eif3a</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Wdfy4</t>
         </is>
       </c>
     </row>
@@ -1756,22 +1756,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gm15663</t>
+          <t>Gm47566</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Gm15396</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1786,27 +1786,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Actr3</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Adgrg6</t>
         </is>
       </c>
     </row>
@@ -1816,27 +1816,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Gm47566</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Tkfc</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Gm9888</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Gcnt2</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Vav3</t>
         </is>
       </c>
     </row>
@@ -1846,27 +1846,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Med7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Sf3b1</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Gm36043</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Gm15663</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Gm10684</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Htr7</t>
         </is>
       </c>
     </row>
@@ -1906,27 +1906,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Maff</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Ifngr1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Tmem132a</t>
         </is>
       </c>
     </row>
@@ -1936,27 +1936,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>Gm11175</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Iqgap2</t>
+          <t>Tkfc</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Arpc2</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mcl1</t>
+          <t>Tmem116</t>
         </is>
       </c>
     </row>
@@ -1966,27 +1966,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Cd74</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Gm11175</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2006,17 +2006,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Ssh2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Il1b</t>
         </is>
       </c>
     </row>
@@ -2026,27 +2026,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Gm10684</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Adam8</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>H2-Eb1</t>
+          <t>Akap13</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Srrm1</t>
+          <t>Tcp1</t>
         </is>
       </c>
     </row>
@@ -2056,27 +2056,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gmpr2</t>
+          <t>Rnaseh2a</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Tcof1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Srrm1</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Gm9888</t>
         </is>
       </c>
     </row>
@@ -2086,27 +2086,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Med7</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Gcnt2</t>
+          <t>Clec1a</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Gm10684</t>
         </is>
       </c>
     </row>
@@ -2116,27 +2116,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Arpc2</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Gm12999</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2146,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Kpna4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Cdk14</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Gm28417</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Gpcpd1</t>
         </is>
       </c>
     </row>
@@ -2206,27 +2206,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Gm12999</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Itga4</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cd47</t>
+          <t>Gm14023</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Arhgap18</t>
         </is>
       </c>
     </row>
@@ -2236,27 +2236,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Tsix</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Gmpr2</t>
+          <t>Il1r2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Gmpr2</t>
+          <t>Tsix</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2276,17 +2276,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Skil</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>1700113A16Rik</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Gm20496</t>
         </is>
       </c>
     </row>
@@ -2296,22 +2296,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Arhgap18</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Alpk2</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Actb</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Tspan13</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2326,27 +2326,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Gm26759</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Eif3a</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Cst3</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2366,17 +2366,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Adam8</t>
         </is>
       </c>
     </row>
@@ -2386,27 +2386,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Tcof1</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Lrrk2</t>
         </is>
       </c>
     </row>
@@ -2416,27 +2416,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>1700113A16Rik</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Tmem132a</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Actr3</t>
         </is>
       </c>
     </row>
@@ -2446,14 +2446,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>Gm20496</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>6530413G14Rik</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Mcl1</t>
-        </is>
-      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>Gm28417</t>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Cadm1</t>
         </is>
       </c>
     </row>
@@ -2476,27 +2476,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>6530413G14Rik</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>1700113A16Rik</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Cyld</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Gm26759</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sgms1</t>
+          <t>4932438H23Rik</t>
         </is>
       </c>
     </row>
@@ -2511,22 +2511,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Dpp4</t>
+          <t>Gm26759</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Twnk</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>6530413G14Rik</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Cap1</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Cap1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2546,17 +2546,77 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>Gdi2</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Tnfaip3</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Adam19</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Clec1a</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Gm10684</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>Gm10244</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>Tmem132a</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Gm47566</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Gm9888</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Gm20496</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Htr7</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Alpk2</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Clec1a</t>
         </is>
       </c>
     </row>

--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_v0.1_gene_ranking.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_v0.1_gene_ranking.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,22 +466,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Itpr1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -496,27 +496,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Gm11973</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Ctsb</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Tmem131</t>
         </is>
       </c>
     </row>
@@ -526,27 +526,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nr4a2</t>
+          <t>Rel</t>
         </is>
       </c>
     </row>
@@ -556,27 +556,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Gm10244</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Ptgs2</t>
         </is>
       </c>
     </row>
@@ -586,27 +586,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Fnbp1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Itpr1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Adam23</t>
         </is>
       </c>
     </row>
@@ -616,27 +616,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1700113A16Rik</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Nr4a2</t>
         </is>
       </c>
     </row>
@@ -646,17 +646,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gm9888</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Gda</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Plet1os</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Nr4a3</t>
         </is>
       </c>
     </row>
@@ -706,27 +706,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Fnbp1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Rgs1</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -746,17 +746,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Gm11973</t>
         </is>
       </c>
     </row>
@@ -766,27 +766,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Plxnc1</t>
         </is>
       </c>
     </row>
@@ -796,27 +796,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Actn1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Serpinb9</t>
         </is>
       </c>
     </row>
@@ -826,27 +826,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Trim25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Jak2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Tnfaip3</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Gm9888</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Fosb</t>
         </is>
       </c>
     </row>
@@ -856,27 +856,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Gm11973</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Mycbp2</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -896,17 +896,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Btla</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Gm10244</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Swap70</t>
         </is>
       </c>
     </row>
@@ -946,27 +946,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Tmem131</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Ccr7</t>
         </is>
       </c>
     </row>
@@ -976,27 +976,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Hsp90b1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Hsp90b1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Irf4</t>
         </is>
       </c>
     </row>
@@ -1006,27 +1006,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Cd83</t>
         </is>
       </c>
     </row>
@@ -1036,27 +1036,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Gm10244</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Fosb</t>
         </is>
       </c>
     </row>
@@ -1066,27 +1066,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Gm11973</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Actn1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Fth1</t>
         </is>
       </c>
     </row>
@@ -1096,27 +1096,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Hsp90b1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Ly75</t>
         </is>
       </c>
     </row>
@@ -1126,27 +1126,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
     </row>
@@ -1156,27 +1156,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Mycbp2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Mycbp2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Cblb</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Samsn1</t>
         </is>
       </c>
     </row>
@@ -1186,27 +1186,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Iqgap2</t>
         </is>
       </c>
     </row>
@@ -1216,27 +1216,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Actn1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Hspa5</t>
         </is>
       </c>
     </row>
@@ -1246,27 +1246,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Tmem131</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nr4a2</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Iqgap2</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Dennd4a</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nr4a2</t>
+          <t>Gda</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1286,17 +1286,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1700113A16Rik</t>
+          <t>Mdh2</t>
         </is>
       </c>
     </row>
@@ -1306,27 +1306,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Pkib</t>
         </is>
       </c>
     </row>
@@ -1336,27 +1336,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
     </row>
@@ -1366,27 +1366,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Fnbp1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Tes</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Itpr1</t>
         </is>
       </c>
     </row>
@@ -1426,27 +1426,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Malat1</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1466,17 +1466,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Malt1</t>
         </is>
       </c>
     </row>
@@ -1486,27 +1486,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Iqgap2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Adgrg6</t>
         </is>
       </c>
     </row>
@@ -1516,27 +1516,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Jak2</t>
         </is>
       </c>
     </row>
@@ -1546,27 +1546,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Stt3b</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Gda</t>
         </is>
       </c>
     </row>
@@ -1576,27 +1576,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Tmem189</t>
         </is>
       </c>
     </row>
@@ -1606,27 +1606,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Tmem189</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Nr4a2</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Il1b</t>
         </is>
       </c>
     </row>
@@ -1636,27 +1636,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Il1b</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
     </row>
@@ -1666,27 +1666,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Tmem131</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Fnbp1</t>
         </is>
       </c>
     </row>
@@ -1696,27 +1696,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ifngr1</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Vav3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Maff</t>
+          <t>Tbc1d4</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Gm10244</t>
         </is>
       </c>
     </row>
@@ -1726,27 +1726,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Mycbp2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Mycbp2</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Pik3r1</t>
         </is>
       </c>
     </row>
@@ -1756,27 +1756,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Irf4</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Cd274</t>
         </is>
       </c>
     </row>
@@ -1786,27 +1786,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Fosb</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Adgrg6</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Fosb</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Flt3</t>
         </is>
       </c>
     </row>
@@ -1816,27 +1816,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gm47566</t>
+          <t>Itpr1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Gm9888</t>
+          <t>Lrrk2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>Dennd4a</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>Wdfy4</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Vav3</t>
         </is>
       </c>
     </row>
@@ -1846,27 +1846,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cadm1</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Plet1os</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Havcr2</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Havcr2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Tmem189</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Vav3</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Nr4a3</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Htr7</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
     </row>
@@ -1906,27 +1906,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>Cblb</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ptgs2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Hsp90b1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>Tmem189</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Malt1</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Maff</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Ifngr1</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Mmp12</t>
         </is>
       </c>
     </row>
@@ -1936,27 +1936,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Iqgap2</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wdfy4</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Tkfc</t>
+          <t>Iqgap2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Arpc2</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tmem116</t>
+          <t>Gm36043</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1966,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Cd74</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Mdh2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Gm11175</t>
+          <t>Thbs1</t>
         </is>
       </c>
     </row>
@@ -1996,27 +1996,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>Cd83</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Ssh2</t>
+          <t>Adam19</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ly75</t>
+          <t>Btla</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Il1b</t>
+          <t>Vav3</t>
         </is>
       </c>
     </row>
@@ -2026,27 +2026,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Wdfy4</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Akap13</t>
+          <t>Jak2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Adgrg6</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tcp1</t>
+          <t>Hsp90b1</t>
         </is>
       </c>
     </row>
@@ -2056,27 +2056,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Rnaseh2a</t>
+          <t>Cdk14</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Rgs1</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Gm9888</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
     </row>
@@ -2086,27 +2086,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Rab7b</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Med7</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Nr4a3</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Trim25</t>
         </is>
       </c>
     </row>
@@ -2116,27 +2116,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>Mmp12</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Samsn1</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Nr4a3</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Thbs1</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>Cst3</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Arpc2</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Cst3</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Tmem189</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Gm12999</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2146,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Kpna4</t>
+          <t>Tes</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Malt1</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Rabgap1l</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2186,17 +2186,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Plxnc1</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Gpcpd1</t>
+          <t>Actn1</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Gm12999</t>
+          <t>Clec9a</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2216,17 +2216,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Itga4</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Samsn1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Cdk14</t>
         </is>
       </c>
     </row>
@@ -2236,27 +2236,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Hspa5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Thbs1</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Hspa5</t>
+          <t>H2-Eb1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Il1r2</t>
+          <t>Ly75</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tsix</t>
+          <t>Ctsb</t>
         </is>
       </c>
     </row>
@@ -2266,27 +2266,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Serpinb9</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Gm14023</t>
+          <t>Gm36043</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jak2</t>
+          <t>Rel</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1700113A16Rik</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Apoe</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Arhgap18</t>
+          <t>Ctsb</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Alpk2</t>
+          <t>Cd274</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Actb</t>
+          <t>Cst3</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Tspan13</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Havcr2</t>
+          <t>Ifi207</t>
         </is>
       </c>
     </row>
@@ -2326,27 +2326,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Malt1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Eif3a</t>
+          <t>Pik3r1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Gm10244</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Cd83</t>
+          <t>Rgs1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cst3</t>
+          <t>Tpd52</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Cadm1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Gm15396</t>
+          <t>Trim25</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cdk14</t>
+          <t>Nr4a2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Btla</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>Cblb</t>
         </is>
       </c>
     </row>
@@ -2386,27 +2386,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cadm1</t>
+          <t>Sgms1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Gm36043</t>
+          <t>Apoe</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Nr4a2</t>
+          <t>Fnbp1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Tcof1</t>
+          <t>Ptgs2</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lrrk2</t>
+          <t>Stt3b</t>
         </is>
       </c>
     </row>
@@ -2416,27 +2416,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1700113A16Rik</t>
+          <t>Ccr7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Actn1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Malat1</t>
+          <t>Tmem131</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Arap2</t>
+          <t>Tnfaip3</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Actr3</t>
+          <t>Sgms1</t>
         </is>
       </c>
     </row>
@@ -2446,27 +2446,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Gm20496</t>
+          <t>Dennd4a</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Ifi207</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Gm28417</t>
+          <t>Malat1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Samsn1</t>
+          <t>Fth1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Cadm1</t>
+          <t>Clec9a</t>
         </is>
       </c>
     </row>
@@ -2476,27 +2476,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1700113A16Rik</t>
+          <t>Mmp12</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Cyld</t>
+          <t>Pkib</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Arap2</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4932438H23Rik</t>
+          <t>Lrrk2</t>
         </is>
       </c>
     </row>
@@ -2506,27 +2506,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Adam8</t>
+          <t>1110035H17Rik</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Gm26759</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Twnk</t>
+          <t>Flt3</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6530413G14Rik</t>
+          <t>Gda</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Rab7b</t>
         </is>
       </c>
     </row>
@@ -2536,27 +2536,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Cap1</t>
+          <t>Swap70</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sf3b1</t>
+          <t>Gda</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Gdi2</t>
+          <t>Itpr1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Tnfaip3</t>
+          <t>Ctsb</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Adam19</t>
+          <t>Cadm1</t>
         </is>
       </c>
     </row>
@@ -2566,57 +2566,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Clec1a</t>
+          <t>Csf2rb2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Gm10684</t>
+          <t>Ctsb</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Gm10244</t>
+          <t>Gm11973</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Tmem132a</t>
+          <t>Tpd52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Gm47566</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Gm9888</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Gm20496</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Htr7</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Alpk2</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Clec1a</t>
+          <t>Adam19</t>
         </is>
       </c>
     </row>
